--- a/results/5000/resultsSummaryBagOfWords5000.xlsx
+++ b/results/5000/resultsSummaryBagOfWords5000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programowanie\python\przetwarzanieJezykaNaturalnego\projekt\results\5000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBE62C-ECF1-458F-8FD8-E5199D49FB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F88BDE-DA74-4623-872E-D072811299A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-21720" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,48 +1012,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D2">
-        <v>0.9284</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="E2">
-        <v>0.97864359999999984</v>
+        <v>0.97868232000000011</v>
       </c>
       <c r="F2">
         <v>0.85960000000000003</v>
       </c>
       <c r="G2">
-        <v>0.92855755999999989</v>
+        <v>0.92862416000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>0.92830000000000001</v>
+        <v>0.9284</v>
       </c>
       <c r="E3">
-        <v>0.97868232000000011</v>
+        <v>0.97864359999999984</v>
       </c>
       <c r="F3">
         <v>0.85960000000000003</v>
       </c>
       <c r="G3">
-        <v>0.92862416000000003</v>
+        <v>0.92855755999999989</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1104,48 +1104,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>0.92820000000000003</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="E6">
-        <v>0.97852900000000009</v>
+        <v>0.97866092000000005</v>
       </c>
       <c r="F6">
         <v>0.85940000000000005</v>
       </c>
       <c r="G6">
-        <v>0.92856236000000003</v>
+        <v>0.92856551999999981</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="D7">
-        <v>0.92849999999999999</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="E7">
-        <v>0.97866092000000005</v>
+        <v>0.97852900000000009</v>
       </c>
       <c r="F7">
         <v>0.85940000000000005</v>
       </c>
       <c r="G7">
-        <v>0.92856551999999981</v>
+        <v>0.92856236000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,36 +2415,36 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
         <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D63">
-        <v>0.97230000000000005</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="E63">
-        <v>0.99590836000000005</v>
+        <v>0.99590708000000006</v>
       </c>
       <c r="F63">
         <v>0.83940000000000003</v>
       </c>
       <c r="G63">
-        <v>0.91435268000000003</v>
+        <v>0.91436088000000004</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
         <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D64">
         <v>0.97219999999999995</v>
@@ -2461,59 +2461,59 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
         <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D65">
-        <v>0.97230000000000005</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="E65">
-        <v>0.99590836000000005</v>
+        <v>0.99590708000000006</v>
       </c>
       <c r="F65">
         <v>0.83940000000000003</v>
       </c>
       <c r="G65">
-        <v>0.91435268000000003</v>
+        <v>0.91436088000000004</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D66">
-        <v>0.97219999999999995</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="E66">
-        <v>0.99590708000000006</v>
+        <v>0.99590836000000005</v>
       </c>
       <c r="F66">
         <v>0.83940000000000003</v>
       </c>
       <c r="G66">
-        <v>0.91436088000000004</v>
+        <v>0.91435268000000003</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
         <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67">
         <v>0.97230000000000005</v>
@@ -2530,25 +2530,25 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68">
-        <v>0.97219999999999995</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="E68">
-        <v>0.99590708000000006</v>
+        <v>0.99590836000000005</v>
       </c>
       <c r="F68">
         <v>0.83940000000000003</v>
       </c>
       <c r="G68">
-        <v>0.91436088000000004</v>
+        <v>0.91435268000000003</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,82 +2645,82 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>0.96860000000000002</v>
       </c>
       <c r="E73">
-        <v>0.99161704000000006</v>
+        <v>0.99161688000000003</v>
       </c>
       <c r="F73">
         <v>0.83499999999999996</v>
       </c>
       <c r="G73">
-        <v>0.91032335999999991</v>
+        <v>0.91032539999999995</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>0.96860000000000002</v>
       </c>
       <c r="E74">
-        <v>0.99161692000000001</v>
+        <v>0.99161704000000006</v>
       </c>
       <c r="F74">
         <v>0.83499999999999996</v>
       </c>
       <c r="G74">
-        <v>0.91032307999999995</v>
+        <v>0.91032335999999991</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>0.96860000000000002</v>
       </c>
       <c r="E75">
-        <v>0.99161688000000003</v>
+        <v>0.99161692000000001</v>
       </c>
       <c r="F75">
         <v>0.83499999999999996</v>
       </c>
       <c r="G75">
-        <v>0.91032539999999995</v>
+        <v>0.91032320000000011</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D76">
         <v>0.96860000000000002</v>
@@ -2732,7 +2732,7 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="G76">
-        <v>0.91032320000000011</v>
+        <v>0.91032307999999995</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,94 +3082,94 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D92">
         <v>0.97140000000000004</v>
       </c>
       <c r="E92">
-        <v>0.99244868000000008</v>
+        <v>0.99244843999999999</v>
       </c>
       <c r="F92">
         <v>0.8327</v>
       </c>
       <c r="G92">
-        <v>0.90720876000000017</v>
+        <v>0.90721028000000004</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D93">
-        <v>0.97140000000000004</v>
+        <v>0.97150000000000003</v>
       </c>
       <c r="E93">
-        <v>0.99244880000000013</v>
+        <v>0.99244887999999998</v>
       </c>
       <c r="F93">
         <v>0.8327</v>
       </c>
       <c r="G93">
-        <v>0.90720900000000004</v>
+        <v>0.90721007999999992</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
         <v>20</v>
       </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>27</v>
-      </c>
       <c r="D94">
-        <v>0.97150000000000003</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="E94">
-        <v>0.99244887999999998</v>
+        <v>0.99244880000000013</v>
       </c>
       <c r="F94">
         <v>0.8327</v>
       </c>
       <c r="G94">
-        <v>0.90721007999999992</v>
+        <v>0.90720900000000004</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>0.97140000000000004</v>
       </c>
       <c r="E95">
-        <v>0.99244843999999999</v>
+        <v>0.99244868000000008</v>
       </c>
       <c r="F95">
         <v>0.8327</v>
       </c>
       <c r="G95">
-        <v>0.90721028000000004</v>
+        <v>0.90720876000000017</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3220,36 +3220,36 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D98">
         <v>0.98009999999999997</v>
       </c>
       <c r="E98">
-        <v>0.9978312399999999</v>
+        <v>0.9978302</v>
       </c>
       <c r="F98">
         <v>0.83089999999999997</v>
       </c>
       <c r="G98">
-        <v>0.90646947999999994</v>
+        <v>0.9064704400000001</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D99">
         <v>0.98009999999999997</v>
@@ -3266,59 +3266,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D100">
         <v>0.98009999999999997</v>
       </c>
       <c r="E100">
-        <v>0.9978312399999999</v>
+        <v>0.9978302</v>
       </c>
       <c r="F100">
         <v>0.83089999999999997</v>
       </c>
       <c r="G100">
-        <v>0.90646947999999994</v>
+        <v>0.9064704400000001</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D101">
         <v>0.98009999999999997</v>
       </c>
       <c r="E101">
-        <v>0.9978302</v>
+        <v>0.9978312399999999</v>
       </c>
       <c r="F101">
         <v>0.83089999999999997</v>
       </c>
       <c r="G101">
-        <v>0.9064704400000001</v>
+        <v>0.90646947999999994</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D102">
         <v>0.98009999999999997</v>
@@ -3335,25 +3335,25 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D103">
         <v>0.98009999999999997</v>
       </c>
       <c r="E103">
-        <v>0.9978302</v>
+        <v>0.9978312399999999</v>
       </c>
       <c r="F103">
         <v>0.83089999999999997</v>
       </c>
       <c r="G103">
-        <v>0.9064704400000001</v>
+        <v>0.90646947999999994</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3657,36 +3657,36 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B117" t="s">
         <v>107</v>
       </c>
       <c r="C117" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D117">
-        <v>0.98250000000000004</v>
+        <v>0.98260000000000003</v>
       </c>
       <c r="E117">
-        <v>0.99818676000000006</v>
+        <v>0.99818723999999992</v>
       </c>
       <c r="F117">
         <v>0.82789999999999997</v>
       </c>
       <c r="G117">
-        <v>0.90438151999999994</v>
+        <v>0.90438607999999998</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B118" t="s">
         <v>107</v>
       </c>
       <c r="C118" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D118">
         <v>0.98260000000000003</v>
@@ -3703,13 +3703,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B119" t="s">
         <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D119">
         <v>0.98250000000000004</v>
@@ -3726,25 +3726,25 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
         <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D120">
-        <v>0.98260000000000003</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="E120">
-        <v>0.99818723999999992</v>
+        <v>0.99818676000000006</v>
       </c>
       <c r="F120">
         <v>0.82789999999999997</v>
       </c>
       <c r="G120">
-        <v>0.90438607999999998</v>
+        <v>0.90438151999999994</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -4255,48 +4255,48 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D143">
         <v>0.98409999999999997</v>
       </c>
       <c r="E143">
-        <v>0.99854080000000001</v>
+        <v>0.99852680000000005</v>
       </c>
       <c r="F143">
         <v>0.82120000000000004</v>
       </c>
       <c r="G143">
-        <v>0.89678199999999997</v>
+        <v>0.89689547999999997</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D144">
         <v>0.98409999999999997</v>
       </c>
       <c r="E144">
-        <v>0.99852680000000005</v>
+        <v>0.99854080000000001</v>
       </c>
       <c r="F144">
         <v>0.82120000000000004</v>
       </c>
       <c r="G144">
-        <v>0.89689547999999997</v>
+        <v>0.89678199999999997</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,48 +4439,48 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D151">
-        <v>0.98509999999999998</v>
+        <v>0.98029999999999995</v>
       </c>
       <c r="E151">
-        <v>0.99875535999999987</v>
+        <v>0.99481244000000002</v>
       </c>
       <c r="F151">
         <v>0.81910000000000005</v>
       </c>
       <c r="G151">
-        <v>0.89501131999999994</v>
+        <v>0.89586387999999983</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D152">
-        <v>0.98029999999999995</v>
+        <v>0.98509999999999998</v>
       </c>
       <c r="E152">
-        <v>0.99481244000000002</v>
+        <v>0.99875535999999987</v>
       </c>
       <c r="F152">
         <v>0.81910000000000005</v>
       </c>
       <c r="G152">
-        <v>0.89586387999999983</v>
+        <v>0.89501131999999994</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4554,36 +4554,36 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D156">
-        <v>0.98560000000000003</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="E156">
-        <v>0.99881703999999993</v>
+        <v>0.99873379999999989</v>
       </c>
       <c r="F156">
         <v>0.81859999999999999</v>
       </c>
       <c r="G156">
-        <v>0.89446732000000007</v>
+        <v>0.89519508000000014</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D157">
         <v>0.98480000000000001</v>
@@ -4600,25 +4600,25 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
         <v>34</v>
       </c>
-      <c r="B158" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" t="s">
-        <v>41</v>
-      </c>
       <c r="D158">
-        <v>0.98480000000000001</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="E158">
-        <v>0.99873379999999989</v>
+        <v>0.99881703999999993</v>
       </c>
       <c r="F158">
         <v>0.81859999999999999</v>
       </c>
       <c r="G158">
-        <v>0.89519508000000014</v>
+        <v>0.89446732000000007</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5244,48 +5244,48 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D186">
-        <v>0.99760000000000004</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="E186">
-        <v>0.99990064000000001</v>
+        <v>0.99794247999999997</v>
       </c>
       <c r="F186">
         <v>0.80369999999999997</v>
       </c>
       <c r="G186">
-        <v>0.87842915999999993</v>
+        <v>0.88270351999999996</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D187">
-        <v>0.99099999999999999</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="E187">
-        <v>0.99794247999999997</v>
+        <v>0.99990064000000001</v>
       </c>
       <c r="F187">
         <v>0.80369999999999997</v>
       </c>
       <c r="G187">
-        <v>0.88270351999999996</v>
+        <v>0.87842915999999993</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
